--- a/TempFactorsCalculation.xlsx
+++ b/TempFactorsCalculation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Set point</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t>Av. Dev.</t>
   </si>
   <si>
     <t>+/- Error</t>
@@ -63,24 +60,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,14 +80,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,7 +150,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.5712755905511811E-2"/>
+          <c:y val="0.1087616652085156"/>
+          <c:w val="0.91156220472440941"/>
+          <c:h val="0.6714577865266842"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -187,129 +180,118 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$E$1:$E$19</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.2048</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Average</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Av. Dev.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$19</c:f>
+              <c:f>Sheet1!$F$1:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>1.9230769230769231</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9444444444444444</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9047619047619047</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9565217391304348</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9230769230769231</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.896551724137931</c:v>
+                  <c:v>0.24553571428571427</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.935483870967742</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9696969696969697</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9444444444444444</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9230769230769231</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9512195121951219</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9318181818181819</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9565217391304348</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9387755102040816</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.96</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.9412169256351537</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.9139180495077471E-2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -337,123 +319,118 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$E$1:$E$19</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.2048</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Average</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Av. Dev.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$1:$G$19</c:f>
+              <c:f>Sheet1!$G$1:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>1.8140002558230561E-2</c:v>
+                  <c:v>-8.5851648351620291E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.8783074364846311E-2</c:v>
+                  <c:v>-8.5851648351620291E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.2275188092907303E-3</c:v>
+                  <c:v>-8.5851648351620291E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6455020873249033E-2</c:v>
+                  <c:v>-8.5851648351620291E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.5304813495281122E-2</c:v>
+                  <c:v>-8.5851648351620291E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8140002558230561E-2</c:v>
+                  <c:v>-8.5851648351620291E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.466520149722264E-2</c:v>
+                  <c:v>4.3784340659341059E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7330546674116967E-3</c:v>
+                  <c:v>-8.5851648351620291E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.8480044061816034E-2</c:v>
+                  <c:v>-8.5851648351620291E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.2275188092907303E-3</c:v>
+                  <c:v>-8.5851648351620291E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8140002558230561E-2</c:v>
+                  <c:v>-8.5851648351620291E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.0002586559968218E-2</c:v>
+                  <c:v>-8.5851648351620291E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.3987438169718107E-3</c:v>
+                  <c:v>-8.5851648351620291E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.5304813495281122E-2</c:v>
+                  <c:v>-8.5851648351620291E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4414154310721248E-3</c:v>
+                  <c:v>-8.5851648351620291E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.8783074364846275E-2</c:v>
+                  <c:v>-8.5851648351620291E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -481,123 +458,118 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$E$1:$E$19</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.2048</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Average</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Av. Dev.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$1:$H$19</c:f>
+              <c:f>Sheet1!$H$1:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>0.94779411077167619</c:v>
+                  <c:v>-3.4352456200607113E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.07134751041013</c:v>
+                  <c:v>-3.4352456200607113E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.16863411733437786</c:v>
+                  <c:v>-3.4352456200607113E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9047325920054485</c:v>
+                  <c:v>-3.4352456200607113E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.79965876800302216</c:v>
+                  <c:v>-3.4352456200607113E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94779411077167619</c:v>
+                  <c:v>-3.4352456200607113E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3337050146274745</c:v>
+                  <c:v>1.7519752662315514E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29954546219396477</c:v>
+                  <c:v>-3.4352456200607113E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.4880492960051763</c:v>
+                  <c:v>-3.4352456200607113E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.16863411733437786</c:v>
+                  <c:v>-3.4352456200607113E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94779411077167619</c:v>
+                  <c:v>-3.4352456200607113E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.52262355551434647</c:v>
+                  <c:v>-3.4352456200607113E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.49107347200101564</c:v>
+                  <c:v>-3.4352456200607113E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.79965876800302216</c:v>
+                  <c:v>-3.4352456200607113E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.12756112685702756</c:v>
+                  <c:v>-3.4352456200607113E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.98139386739558754</c:v>
+                  <c:v>-3.4352456200607113E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -625,126 +597,118 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$E$1:$E$19</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.2048</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Average</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Av. Dev.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$1:$I$19</c:f>
+              <c:f>Sheet1!$I$1:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>0.45350006395576403</c:v>
+                  <c:v>-8.5881140501517777E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.7634922309453893</c:v>
+                  <c:v>-1.0305736860182133E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.11296315832517556</c:v>
+                  <c:v>-1.2023359670212489E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4582008349299613</c:v>
+                  <c:v>-1.3740982480242844E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.6887166072876505</c:v>
+                  <c:v>-1.5458605290273202E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90700012791152806</c:v>
+                  <c:v>-1.7176228100303555E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4565860823472452</c:v>
+                  <c:v>0.96358639642735333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3439832800447018</c:v>
+                  <c:v>-2.0611473720364266E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.8512028640180422</c:v>
+                  <c:v>-2.2329096530394624E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.22592631665035112</c:v>
+                  <c:v>-2.4046719340424978E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3605001918672921</c:v>
+                  <c:v>-2.5764342150455335E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.80020692479745748</c:v>
+                  <c:v>-2.7481964960485689E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79889322444260391</c:v>
+                  <c:v>-2.9199587770516046E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.377433214575301</c:v>
+                  <c:v>-3.0917210580546403E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.23193446595185185</c:v>
+                  <c:v>-3.263483339057676E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.840741287754935</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.21395557479889801</c:v>
+                  <c:v>-3.3665407076594968E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -772,126 +736,118 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$E$1:$E$19</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.2048</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Average</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Av. Dev.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$1:$J$19</c:f>
+              <c:f>Sheet1!$J$1:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>0.54649993604423597</c:v>
+                  <c:v>1.0085881140501518</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7634922309453893</c:v>
+                  <c:v>1.0103057368601822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1129631583251756</c:v>
+                  <c:v>1.0120233596702124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.45820083492996133</c:v>
+                  <c:v>1.0137409824802428</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6887166072876505</c:v>
+                  <c:v>1.0154586052902732</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2999872088471935E-2</c:v>
+                  <c:v>1.0171762281003036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.4565860823472452</c:v>
+                  <c:v>3.6413603572646669E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6560167199552982</c:v>
+                  <c:v>1.0206114737203642</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8512028640180422</c:v>
+                  <c:v>1.0223290965303946</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2259263166503511</c:v>
+                  <c:v>1.024046719340425</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.3605001918672921</c:v>
+                  <c:v>1.0257643421504554</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8002069247974575</c:v>
+                  <c:v>1.0274819649604856</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.20110677555739609</c:v>
+                  <c:v>1.029199587770516</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.377433214575301</c:v>
+                  <c:v>1.0309172105805464</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.76806553404814815</c:v>
+                  <c:v>1.0326348333905768</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.840741287754935</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0406302708064596</c:v>
+                  <c:v>1.0336654070765949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,16 +1615,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1953,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,9 +1923,10 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1980,20 +1937,20 @@
         <v>2</v>
       </c>
       <c r="E1">
-        <f>1024/5000</f>
-        <v>0.20480000000000001</v>
+        <f>1024/2560</f>
+        <v>0.4</v>
       </c>
       <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>
@@ -2003,44 +1960,52 @@
       <c r="C2">
         <v>24</v>
       </c>
-      <c r="E2" t="str">
-        <f>FIXED( ((B2*$E$1*1000)/4),0,)</f>
-        <v>13</v>
+      <c r="E2">
+        <f>_xlfn.FLOOR.MATH( ((B2*$E$1*1000)),1,)</f>
+        <v>100</v>
       </c>
       <c r="F2">
         <f>A2/E2</f>
-        <v>1.9230769230769231</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
-        <f>$F$18-F2</f>
-        <v>1.8140002558230561E-2</v>
+        <f>$F$54-F2</f>
+        <v>-8.5851648351620291E-5</v>
       </c>
       <c r="H2">
-        <f>G2/$F$19</f>
-        <v>0.94779411077167619</v>
+        <f>G2/$F$54</f>
+        <v>-3.4352456200607113E-4</v>
       </c>
       <c r="I2">
-        <f>G2*A2</f>
-        <v>0.45350006395576403</v>
+        <f>H2*A2</f>
+        <v>-8.5881140501517777E-3</v>
       </c>
       <c r="J2">
         <f>1-I2</f>
-        <v>0.54649993604423597</v>
+        <v>1.0085881140501518</v>
       </c>
       <c r="L2">
-        <f>$L$18 * E2</f>
-        <v>25.235820033256999</v>
+        <f t="shared" ref="L2:L17" si="0">$L$54 * E2</f>
+        <v>24.991414835164839</v>
       </c>
       <c r="M2" s="2">
-        <f>FLOOR( L2+$L$19,1)</f>
-        <v>26</v>
+        <f t="shared" ref="M2:M17" si="1">_xlfn.FLOOR.MATH( L2+$L$55,1,)</f>
+        <v>25</v>
       </c>
       <c r="N2">
-        <f>M2-A2</f>
+        <f t="shared" ref="N2:N17" si="2">M2-A2</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O17" si="3">M2-C2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <f t="shared" ref="P2:P17" si="4">O2/C2</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
@@ -2050,44 +2015,52 @@
       <c r="C3">
         <v>30</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E17" si="0">FIXED( ((B3*$E$1*1000)/4),0,)</f>
-        <v>15</v>
+      <c r="E3">
+        <f t="shared" ref="E3:E17" si="5">_xlfn.FLOOR.MATH( ((B3*$E$1*1000)),1,)</f>
+        <v>120</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F17" si="1">A3/E3</f>
-        <v>2</v>
+        <f t="shared" ref="F3:F17" si="6">A3/E3</f>
+        <v>0.25</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G17" si="2">$F$18-F3</f>
-        <v>-5.8783074364846311E-2</v>
+        <f t="shared" ref="G3:G53" si="7">$F$54-F3</f>
+        <v>-8.5851648351620291E-5</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H17" si="3">G3/$F$19</f>
-        <v>-3.07134751041013</v>
+        <f t="shared" ref="H3:H53" si="8">G3/$F$54</f>
+        <v>-3.4352456200607113E-4</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I17" si="4">G3*A3</f>
-        <v>-1.7634922309453893</v>
+        <f t="shared" ref="I3:I17" si="9">H3*A3</f>
+        <v>-1.0305736860182133E-2</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J17" si="5">1-I3</f>
-        <v>2.7634922309453893</v>
+        <f t="shared" ref="J3:J17" si="10">1-I3</f>
+        <v>1.0103057368601822</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L17" si="6">$L$18 * E3</f>
-        <v>29.118253884527306</v>
+        <f t="shared" si="0"/>
+        <v>29.989697802197806</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M17" si="7">FLOOR( L3+$L$19,1)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N17" si="8">M3-A3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>35</v>
       </c>
@@ -2097,44 +2070,52 @@
       <c r="C4">
         <v>36</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="9"/>
+        <v>-1.2023359670212489E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="10"/>
+        <v>1.0120233596702124</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F4">
+        <v>34.987980769230774</v>
+      </c>
+      <c r="M4" s="2">
         <f t="shared" si="1"/>
-        <v>1.9444444444444444</v>
-      </c>
-      <c r="G4">
+        <v>35</v>
+      </c>
+      <c r="N4">
         <f t="shared" si="2"/>
-        <v>-3.2275188092907303E-3</v>
-      </c>
-      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="3"/>
-        <v>-0.16863411733437786</v>
-      </c>
-      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="4"/>
-        <v>-0.11296315832517556</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="5"/>
-        <v>1.1129631583251756</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="6"/>
-        <v>34.941904661432766</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
@@ -2144,44 +2125,52 @@
       <c r="C5">
         <v>40</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="9"/>
+        <v>-1.3740982480242844E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="10"/>
+        <v>1.0137409824802428</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="F5">
+        <v>39.986263736263737</v>
+      </c>
+      <c r="M5" s="2">
         <f t="shared" si="1"/>
-        <v>1.9047619047619047</v>
-      </c>
-      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="2"/>
-        <v>3.6455020873249033E-2</v>
-      </c>
-      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="3"/>
-        <v>1.9047325920054485</v>
-      </c>
-      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="4"/>
-        <v>1.4582008349299613</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="5"/>
-        <v>-0.45820083492996133</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="6"/>
-        <v>40.765555438338225</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="7"/>
-        <v>41</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>45</v>
       </c>
@@ -2191,44 +2180,52 @@
       <c r="C6">
         <v>46</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="9"/>
+        <v>-1.5458605290273202E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="10"/>
+        <v>1.0154586052902732</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="F6">
+        <v>44.984546703296708</v>
+      </c>
+      <c r="M6" s="2">
         <f t="shared" si="1"/>
-        <v>1.9565217391304348</v>
-      </c>
-      <c r="G6">
+        <v>45</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="2"/>
-        <v>-1.5304813495281122E-2</v>
-      </c>
-      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="3"/>
-        <v>-0.79965876800302216</v>
-      </c>
-      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="4"/>
-        <v>-0.6887166072876505</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="5"/>
-        <v>1.6887166072876505</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="6"/>
-        <v>44.647989289608532</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-2.1739130434782608E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -2238,44 +2235,52 @@
       <c r="C7">
         <v>50</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="9"/>
+        <v>-1.7176228100303555E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="10"/>
+        <v>1.0171762281003036</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="F7">
+        <v>49.982829670329679</v>
+      </c>
+      <c r="M7" s="2">
         <f t="shared" si="1"/>
-        <v>1.9230769230769231</v>
-      </c>
-      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="2"/>
-        <v>1.8140002558230561E-2</v>
-      </c>
-      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="3"/>
-        <v>0.94779411077167619</v>
-      </c>
-      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="4"/>
-        <v>0.90700012791152806</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="5"/>
-        <v>9.2999872088471935E-2</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="6"/>
-        <v>50.471640066513999</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="7"/>
-        <v>51</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>55</v>
       </c>
@@ -2285,44 +2290,52 @@
       <c r="C8">
         <v>56</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8">
+        <f t="shared" si="5"/>
+        <v>224</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="6"/>
+        <v>0.24553571428571427</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="7"/>
+        <v>4.3784340659341059E-3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="8"/>
+        <v>1.7519752662315514E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="9"/>
+        <v>0.96358639642735333</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="10"/>
+        <v>3.6413603572646669E-2</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F8">
+        <v>55.980769230769241</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="1"/>
-        <v>1.896551724137931</v>
-      </c>
-      <c r="G8">
+        <v>56</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="2"/>
-        <v>4.466520149722264E-2</v>
-      </c>
-      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="3"/>
-        <v>2.3337050146274745</v>
-      </c>
-      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="4"/>
-        <v>2.4565860823472452</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="5"/>
-        <v>-1.4565860823472452</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="6"/>
-        <v>56.295290843419458</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="7"/>
-        <v>57</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
@@ -2332,44 +2345,52 @@
       <c r="C9">
         <v>60</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="9"/>
+        <v>-2.0611473720364266E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="10"/>
+        <v>1.0206114737203642</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="F9">
+        <v>59.979395604395613</v>
+      </c>
+      <c r="M9" s="2">
         <f t="shared" si="1"/>
-        <v>1.935483870967742</v>
-      </c>
-      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="2"/>
-        <v>5.7330546674116967E-3</v>
-      </c>
-      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="3"/>
-        <v>0.29954546219396477</v>
-      </c>
-      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="4"/>
-        <v>0.3439832800447018</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="5"/>
-        <v>0.6560167199552982</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="6"/>
-        <v>60.177724694689765</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="7"/>
-        <v>61</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>65</v>
       </c>
@@ -2379,44 +2400,52 @@
       <c r="C10">
         <v>66</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10">
+        <f t="shared" si="5"/>
+        <v>260</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="9"/>
+        <v>-2.2329096530394624E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="10"/>
+        <v>1.0223290965303946</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="F10">
+        <v>64.977678571428584</v>
+      </c>
+      <c r="M10" s="2">
         <f t="shared" si="1"/>
-        <v>1.9696969696969697</v>
-      </c>
-      <c r="G10">
+        <v>65</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="2"/>
-        <v>-2.8480044061816034E-2</v>
-      </c>
-      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="3"/>
-        <v>-1.4880492960051763</v>
-      </c>
-      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="4"/>
-        <v>-1.8512028640180422</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="5"/>
-        <v>2.8512028640180422</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="6"/>
-        <v>64.060158545960078</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-1.5151515151515152E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>70</v>
       </c>
@@ -2426,44 +2455,52 @@
       <c r="C11">
         <v>72</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>280</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="9"/>
+        <v>-2.4046719340424978E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="10"/>
+        <v>1.024046719340425</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="F11">
+        <v>69.975961538461547</v>
+      </c>
+      <c r="M11" s="2">
         <f t="shared" si="1"/>
-        <v>1.9444444444444444</v>
-      </c>
-      <c r="G11">
+        <v>70</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="2"/>
-        <v>-3.2275188092907303E-3</v>
-      </c>
-      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="3"/>
-        <v>-0.16863411733437786</v>
-      </c>
-      <c r="I11">
+        <v>-2</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="4"/>
-        <v>-0.22592631665035112</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="5"/>
-        <v>1.2259263166503511</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="6"/>
-        <v>69.883809322865531</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="7"/>
-        <v>70</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>75</v>
       </c>
@@ -2473,44 +2510,52 @@
       <c r="C12">
         <v>76</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="9"/>
+        <v>-2.5764342150455335E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="10"/>
+        <v>1.0257643421504554</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="F12">
+        <v>74.974244505494511</v>
+      </c>
+      <c r="M12" s="2">
         <f t="shared" si="1"/>
-        <v>1.9230769230769231</v>
-      </c>
-      <c r="G12">
+        <v>75</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="2"/>
-        <v>1.8140002558230561E-2</v>
-      </c>
-      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="3"/>
-        <v>0.94779411077167619</v>
-      </c>
-      <c r="I12">
+        <v>-1</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="4"/>
-        <v>1.3605001918672921</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="5"/>
-        <v>-0.3605001918672921</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="6"/>
-        <v>75.707460099770998</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="7"/>
-        <v>76</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-1.3157894736842105E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>80</v>
       </c>
@@ -2520,44 +2565,52 @@
       <c r="C13">
         <v>82</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E13">
+        <f t="shared" si="5"/>
+        <v>320</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="9"/>
+        <v>-2.7481964960485689E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="10"/>
+        <v>1.0274819649604856</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="F13">
+        <v>79.972527472527474</v>
+      </c>
+      <c r="M13" s="2">
         <f t="shared" si="1"/>
-        <v>1.9512195121951219</v>
-      </c>
-      <c r="G13">
+        <v>80</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="2"/>
-        <v>-1.0002586559968218E-2</v>
-      </c>
-      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="3"/>
-        <v>-0.52262355551434647</v>
-      </c>
-      <c r="I13">
+        <v>-2</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="4"/>
-        <v>-0.80020692479745748</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="5"/>
-        <v>1.8002069247974575</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="6"/>
-        <v>79.589893951041304</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-2.4390243902439025E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>85</v>
       </c>
@@ -2567,44 +2620,52 @@
       <c r="C14">
         <v>86</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>340</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="9"/>
+        <v>-2.9199587770516046E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="10"/>
+        <v>1.029199587770516</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="F14">
+        <v>84.970810439560452</v>
+      </c>
+      <c r="M14" s="2">
         <f t="shared" si="1"/>
-        <v>1.9318181818181819</v>
-      </c>
-      <c r="G14">
+        <v>85</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="2"/>
-        <v>9.3987438169718107E-3</v>
-      </c>
-      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="3"/>
-        <v>0.49107347200101564</v>
-      </c>
-      <c r="I14">
+        <v>-1</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="4"/>
-        <v>0.79889322444260391</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="5"/>
-        <v>0.20110677555739609</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="6"/>
-        <v>85.413544727946757</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="7"/>
-        <v>86</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-1.1627906976744186E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>90</v>
       </c>
@@ -2614,44 +2675,52 @@
       <c r="C15">
         <v>92</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>360</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
-        <v>1.9565217391304348</v>
+        <f t="shared" si="6"/>
+        <v>0.25</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
-        <v>-1.5304813495281122E-2</v>
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
-        <v>-0.79965876800302216</v>
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
       </c>
       <c r="I15">
-        <f t="shared" si="4"/>
-        <v>-1.377433214575301</v>
+        <f t="shared" si="9"/>
+        <v>-3.0917210580546403E-2</v>
       </c>
       <c r="J15">
         <f>1-I15</f>
-        <v>2.377433214575301</v>
+        <v>1.0309172105805464</v>
       </c>
       <c r="L15">
-        <f t="shared" si="6"/>
-        <v>89.295978579217063</v>
+        <f t="shared" si="0"/>
+        <v>89.969093406593416</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="N15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>-2.1739130434782608E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>95</v>
       </c>
@@ -2661,44 +2730,52 @@
       <c r="C16">
         <v>96</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="9"/>
+        <v>-3.263483339057676E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="10"/>
+        <v>1.0326348333905768</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="F16">
+        <v>94.967376373626379</v>
+      </c>
+      <c r="M16" s="2">
         <f t="shared" si="1"/>
-        <v>1.9387755102040816</v>
-      </c>
-      <c r="G16">
+        <v>95</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="2"/>
-        <v>2.4414154310721248E-3</v>
-      </c>
-      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="3"/>
-        <v>0.12756112685702756</v>
-      </c>
-      <c r="I16">
+        <v>-1</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="4"/>
-        <v>0.23193446595185185</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="5"/>
-        <v>0.76806553404814815</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="6"/>
-        <v>95.11962935612253</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="7"/>
-        <v>96</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>98</v>
       </c>
@@ -2708,75 +2785,2104 @@
       <c r="C17">
         <v>100</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>392</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="9"/>
+        <v>-3.3665407076594968E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="10"/>
+        <v>1.0336654070765949</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="0"/>
+        <v>97.96634615384616</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>50</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>1.96</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>-1.8783074364846275E-2</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>-0.98139386739558754</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="4"/>
-        <v>-1.840741287754935</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="5"/>
-        <v>2.840741287754935</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="6"/>
-        <v>97.060846281757691</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="7"/>
-        <v>98</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+      <c r="B18">
+        <v>0.501799</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:E53" si="11">_xlfn.FLOOR.MATH( ((B18*$E$1*1000)),1,)</f>
+        <v>200</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18" si="12">A18/E18</f>
+        <v>0.25</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:I53" si="13">H18*A18</f>
+        <v>-1.7176228100303555E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18" si="14">1-I18</f>
+        <v>1.0171762281003036</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:L52" si="15">$L$54 * E18</f>
+        <v>49.982829670329679</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" ref="M18:M52" si="16">_xlfn.FLOOR.MATH( L18+$L$55,1,)</f>
+        <v>50</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18" si="17">M18-A18</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18:O38" si="18">M18-C18</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P37" si="19">O18/C18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>A18+1</f>
+        <v>51</v>
+      </c>
+      <c r="B19">
+        <v>0.51181299999999996</v>
+      </c>
+      <c r="C19">
+        <v>52</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="11"/>
+        <v>204</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:F39" si="20">A19/E19</f>
+        <v>0.25</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="13"/>
+        <v>-1.7519752662309627E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J39" si="21">1-I19</f>
+        <v>1.0175197526623097</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="15"/>
+        <v>50.98248626373627</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="16"/>
+        <v>51</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:N39" si="22">M19-A19</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="19"/>
+        <v>-1.9230769230769232E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" ref="A20:A39" si="23">A19+1</f>
+        <v>52</v>
+      </c>
+      <c r="B20">
+        <v>0.52182600000000001</v>
+      </c>
+      <c r="C20">
+        <v>52</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="11"/>
+        <v>208</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="13"/>
+        <v>-1.7863277224315698E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="21"/>
+        <v>1.0178632772243157</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="15"/>
+        <v>51.982142857142861</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="16"/>
+        <v>52</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="23"/>
+        <v>53</v>
+      </c>
+      <c r="B21">
+        <v>0.53183999999999998</v>
+      </c>
+      <c r="C21">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="11"/>
+        <v>212</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="13"/>
+        <v>-1.820680178632177E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="21"/>
+        <v>1.0182068017863217</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="15"/>
+        <v>52.98179945054946</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="16"/>
+        <v>53</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="19"/>
+        <v>-1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="23"/>
+        <v>54</v>
+      </c>
+      <c r="B22">
+        <v>0.54185300000000003</v>
+      </c>
+      <c r="C22">
+        <v>54</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="11"/>
+        <v>216</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="13"/>
+        <v>-1.8550326348327841E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="21"/>
+        <v>1.0185503263483278</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="15"/>
+        <v>53.981456043956051</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="16"/>
+        <v>54</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="23"/>
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>0.551867</v>
+      </c>
+      <c r="C23">
+        <v>56</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="11"/>
+        <v>220</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="13"/>
+        <v>-1.8893850910333913E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="21"/>
+        <v>1.018893850910334</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="15"/>
+        <v>54.981112637362642</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="16"/>
+        <v>55</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="19"/>
+        <v>-1.7857142857142856E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="23"/>
+        <v>56</v>
+      </c>
+      <c r="B24">
+        <v>0.56188000000000005</v>
+      </c>
+      <c r="C24">
+        <v>56</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="11"/>
+        <v>224</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="13"/>
+        <v>-1.9237375472339984E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="21"/>
+        <v>1.0192373754723401</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="15"/>
+        <v>55.980769230769241</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="16"/>
+        <v>56</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="23"/>
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>0.57189400000000001</v>
+      </c>
+      <c r="C25">
+        <v>58</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="11"/>
+        <v>228</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="13"/>
+        <v>-1.9580900034346056E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="21"/>
+        <v>1.0195809000343461</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="15"/>
+        <v>56.980425824175832</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="16"/>
+        <v>57</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="19"/>
+        <v>-1.7241379310344827E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="23"/>
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>0.58190699999999995</v>
+      </c>
+      <c r="C26">
+        <v>58</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="11"/>
+        <v>232</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="13"/>
+        <v>-1.9924424596352127E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="21"/>
+        <v>1.0199244245963521</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="15"/>
+        <v>57.980082417582423</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="16"/>
+        <v>58</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="23"/>
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <v>0.59192100000000003</v>
+      </c>
+      <c r="C27">
+        <v>60</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="11"/>
+        <v>236</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="13"/>
+        <v>-2.0267949158358195E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="21"/>
+        <v>1.0202679491583582</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="15"/>
+        <v>58.979739010989015</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="16"/>
+        <v>59</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="19"/>
+        <v>-1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="23"/>
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>0.60193399999999997</v>
+      </c>
+      <c r="C28">
+        <v>60</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="11"/>
+        <v>240</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="13"/>
+        <v>-2.0611473720364266E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="21"/>
+        <v>1.0206114737203642</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="15"/>
+        <v>59.979395604395613</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="16"/>
+        <v>60</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="23"/>
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>0.61194800000000005</v>
+      </c>
+      <c r="C29">
+        <v>62</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="11"/>
+        <v>244</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="13"/>
+        <v>-2.0954998282370338E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="21"/>
+        <v>1.0209549982823702</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="15"/>
+        <v>60.979052197802204</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="16"/>
+        <v>61</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="19"/>
+        <v>-1.6129032258064516E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="23"/>
+        <v>62</v>
+      </c>
+      <c r="B30">
+        <v>0.62196200000000001</v>
+      </c>
+      <c r="C30">
+        <v>62</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="11"/>
+        <v>248</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="13"/>
+        <v>-2.1298522844376409E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="21"/>
+        <v>1.0212985228443765</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="15"/>
+        <v>61.978708791208796</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="16"/>
+        <v>62</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="23"/>
+        <v>63</v>
+      </c>
+      <c r="B31">
+        <v>0.63197499999999995</v>
+      </c>
+      <c r="C31">
+        <v>64</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="11"/>
+        <v>252</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="13"/>
+        <v>-2.1642047406382481E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="21"/>
+        <v>1.0216420474063825</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="15"/>
+        <v>62.978365384615394</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="16"/>
+        <v>63</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="19"/>
+        <v>-1.5625E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="23"/>
+        <v>64</v>
+      </c>
+      <c r="B32">
+        <v>0.641988</v>
+      </c>
+      <c r="C32">
+        <v>64</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="11"/>
+        <v>256</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="13"/>
+        <v>-2.1985571968388552E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="21"/>
+        <v>1.0219855719683886</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="15"/>
+        <v>63.978021978021985</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="16"/>
+        <v>64</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="23"/>
+        <v>65</v>
+      </c>
+      <c r="B33">
+        <v>0.65200199999999997</v>
+      </c>
+      <c r="C33">
+        <v>66</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="11"/>
+        <v>260</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="13"/>
+        <v>-2.2329096530394624E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="21"/>
+        <v>1.0223290965303946</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="15"/>
+        <v>64.977678571428584</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="16"/>
+        <v>65</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="19"/>
+        <v>-1.5151515151515152E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="23"/>
+        <v>66</v>
+      </c>
+      <c r="B34">
+        <v>0.66201600000000005</v>
+      </c>
+      <c r="C34">
+        <v>68</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="11"/>
+        <v>264</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="13"/>
+        <v>-2.2672621092400695E-2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="21"/>
+        <v>1.0226726210924006</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="15"/>
+        <v>65.977335164835168</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="16"/>
+        <v>66</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="18"/>
+        <v>-2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="19"/>
+        <v>-2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="23"/>
+        <v>67</v>
+      </c>
+      <c r="B35">
+        <v>0.67202899999999999</v>
+      </c>
+      <c r="C35">
+        <v>68</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="11"/>
+        <v>268</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="13"/>
+        <v>-2.3016145654406767E-2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="21"/>
+        <v>1.0230161456544067</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="15"/>
+        <v>66.976991758241766</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="16"/>
+        <v>67</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="19"/>
+        <v>-1.4705882352941176E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="23"/>
+        <v>68</v>
+      </c>
+      <c r="B36">
+        <v>0.68204299999999995</v>
+      </c>
+      <c r="C36">
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="11"/>
+        <v>272</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="13"/>
+        <v>-2.3359670216412838E-2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="21"/>
+        <v>1.0233596702164129</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="15"/>
+        <v>67.976648351648365</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="16"/>
+        <v>68</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="18"/>
+        <v>-2</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="19"/>
+        <v>-2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="23"/>
+        <v>69</v>
+      </c>
+      <c r="B37">
+        <v>0.692056</v>
+      </c>
+      <c r="C37">
+        <v>70</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="11"/>
+        <v>276</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="13"/>
+        <v>-2.370319477841891E-2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="21"/>
+        <v>1.023703194778419</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="15"/>
+        <v>68.976304945054949</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="16"/>
+        <v>69</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="19"/>
+        <v>-1.4285714285714285E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="23"/>
+        <v>70</v>
+      </c>
+      <c r="B38">
+        <v>0.70206999999999997</v>
+      </c>
+      <c r="C38">
+        <v>72</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="11"/>
+        <v>280</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="13"/>
+        <v>-2.4046719340424978E-2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="21"/>
+        <v>1.024046719340425</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="15"/>
+        <v>69.975961538461547</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="16"/>
+        <v>70</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="18"/>
+        <v>-2</v>
+      </c>
+      <c r="P38">
+        <f>O38/C38</f>
+        <v>-2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="23"/>
+        <v>71</v>
+      </c>
+      <c r="B39">
+        <v>0.71208300000000002</v>
+      </c>
+      <c r="C39">
+        <v>72</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="11"/>
+        <v>284</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="13"/>
+        <v>-2.4390243902431049E-2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="21"/>
+        <v>1.0243902439024311</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="15"/>
+        <v>70.975618131868146</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="16"/>
+        <v>71</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f>M39-C39</f>
+        <v>-1</v>
+      </c>
+      <c r="P39">
+        <f t="shared" ref="P39:P53" si="24">O39/C39</f>
+        <v>-1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" ref="A40:A53" si="25">A39+1</f>
+        <v>72</v>
+      </c>
+      <c r="B40">
+        <v>0.72209699999999999</v>
+      </c>
+      <c r="C40">
+        <v>73</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="11"/>
+        <v>288</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40:F53" si="26">A40/E40</f>
+        <v>0.25</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="13"/>
+        <v>-2.473376846443712E-2</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ref="J40:J53" si="27">1-I40</f>
+        <v>1.0247337684644371</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="15"/>
+        <v>71.97527472527473</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="16"/>
+        <v>72</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ref="N40:N53" si="28">M40-A40</f>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" ref="O40:O53" si="29">M40-C40</f>
+        <v>-1</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="24"/>
+        <v>-1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="25"/>
+        <v>73</v>
+      </c>
+      <c r="B41">
+        <v>0.73211000000000004</v>
+      </c>
+      <c r="C41">
+        <v>73</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="11"/>
+        <v>292</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="13"/>
+        <v>-2.5077293026443192E-2</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="27"/>
+        <v>1.0250772930264431</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="15"/>
+        <v>72.974931318681328</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="16"/>
+        <v>73</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="25"/>
+        <v>74</v>
+      </c>
+      <c r="B42">
+        <v>0.74212400000000001</v>
+      </c>
+      <c r="C42">
+        <v>75</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="11"/>
+        <v>296</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="13"/>
+        <v>-2.5420817588449263E-2</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="27"/>
+        <v>1.0254208175884492</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="15"/>
+        <v>73.974587912087927</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="16"/>
+        <v>74</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="24"/>
+        <v>-1.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="25"/>
+        <v>75</v>
+      </c>
+      <c r="B43">
+        <v>0.75213700000000006</v>
+      </c>
+      <c r="C43">
+        <v>75</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="13"/>
+        <v>-2.5764342150455335E-2</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="27"/>
+        <v>1.0257643421504554</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="15"/>
+        <v>74.974244505494511</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="25"/>
+        <v>76</v>
+      </c>
+      <c r="B44">
+        <v>0.76215100000000002</v>
+      </c>
+      <c r="C44">
+        <v>77</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="11"/>
+        <v>304</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="13"/>
+        <v>-2.6107866712461406E-2</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="27"/>
+        <v>1.0261078667124615</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="15"/>
+        <v>75.973901098901109</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="24"/>
+        <v>-1.2987012987012988E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="25"/>
+        <v>77</v>
+      </c>
+      <c r="B45">
+        <v>0.77216399999999996</v>
+      </c>
+      <c r="C45">
+        <v>77</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="11"/>
+        <v>308</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="13"/>
+        <v>-2.6451391274467478E-2</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="27"/>
+        <v>1.0264513912744675</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="15"/>
+        <v>76.973557692307708</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="16"/>
+        <v>77</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="25"/>
+        <v>78</v>
+      </c>
+      <c r="B46">
+        <v>0.78217800000000004</v>
+      </c>
+      <c r="C46">
+        <v>79</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="11"/>
+        <v>312</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="13"/>
+        <v>-2.6794915836473549E-2</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="27"/>
+        <v>1.0267949158364735</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="15"/>
+        <v>77.973214285714292</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="16"/>
+        <v>78</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="24"/>
+        <v>-1.2658227848101266E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="25"/>
+        <v>79</v>
+      </c>
+      <c r="B47">
+        <v>0.79219099999999998</v>
+      </c>
+      <c r="C47">
+        <v>79</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="11"/>
+        <v>316</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="13"/>
+        <v>-2.7138440398479621E-2</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="27"/>
+        <v>1.0271384403984796</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="15"/>
+        <v>78.97287087912089</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="16"/>
+        <v>79</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="25"/>
+        <v>80</v>
+      </c>
+      <c r="B48">
+        <v>0.80220499999999995</v>
+      </c>
+      <c r="C48">
+        <v>81</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="11"/>
+        <v>320</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="13"/>
+        <v>-2.7481964960485689E-2</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="27"/>
+        <v>1.0274819649604856</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="15"/>
+        <v>79.972527472527474</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="24"/>
+        <v>-1.2345679012345678E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="25"/>
+        <v>81</v>
+      </c>
+      <c r="B49">
+        <v>0.812218</v>
+      </c>
+      <c r="C49">
+        <v>81</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="11"/>
+        <v>324</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="13"/>
+        <v>-2.782548952249176E-2</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="27"/>
+        <v>1.0278254895224919</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="15"/>
+        <v>80.972184065934073</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="16"/>
+        <v>81</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="25"/>
+        <v>82</v>
+      </c>
+      <c r="B50">
+        <v>0.82223199999999996</v>
+      </c>
+      <c r="C50">
+        <v>83</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="11"/>
+        <v>328</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="13"/>
+        <v>-2.8169014084497832E-2</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="27"/>
+        <v>1.0281690140844979</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="15"/>
+        <v>81.971840659340671</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="24"/>
+        <v>-1.2048192771084338E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="25"/>
+        <v>83</v>
+      </c>
+      <c r="B51">
+        <v>0.83224500000000001</v>
+      </c>
+      <c r="C51">
+        <v>83</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="11"/>
+        <v>332</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="13"/>
+        <v>-2.8512538646503903E-2</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="27"/>
+        <v>1.0285125386465039</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="15"/>
+        <v>82.971497252747255</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="16"/>
+        <v>83</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="25"/>
+        <v>84</v>
+      </c>
+      <c r="B52">
+        <v>0.84225899999999998</v>
+      </c>
+      <c r="C52">
+        <v>85</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="11"/>
+        <v>336</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="13"/>
+        <v>-2.8856063208509974E-2</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="27"/>
+        <v>1.02885606320851</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="15"/>
+        <v>83.971153846153854</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="16"/>
+        <v>84</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="24"/>
+        <v>-1.1764705882352941E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="25"/>
+        <v>85</v>
+      </c>
+      <c r="B53">
+        <v>0.85227200000000003</v>
+      </c>
+      <c r="C53">
+        <v>85</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="11"/>
+        <v>340</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="7"/>
+        <v>-8.5851648351620291E-5</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="8"/>
+        <v>-3.4352456200607113E-4</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="13"/>
+        <v>-2.9199587770516046E-2</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="27"/>
+        <v>1.029199587770516</v>
+      </c>
+      <c r="L53">
+        <f>$L$54 * E53</f>
+        <v>84.970810439560452</v>
+      </c>
+      <c r="M53" s="2">
+        <f>_xlfn.FLOOR.MATH( L53+$L$55,1,)</f>
+        <v>85</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
         <v>3</v>
       </c>
-      <c r="F18">
-        <f>AVERAGE(F2:F17)</f>
-        <v>1.9412169256351537</v>
-      </c>
-      <c r="I18">
-        <f>AVERAGE(I8:I13)</f>
-        <v>0.21395557479889801</v>
-      </c>
-      <c r="J18">
-        <f>AVERAGE(J2:J17)</f>
-        <v>1.0406302708064596</v>
-      </c>
-      <c r="L18" s="3">
-        <f>F18</f>
-        <v>1.9412169256351537</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <f>AVEDEV(F2:F17)</f>
-        <v>1.9139180495077471E-2</v>
-      </c>
-      <c r="L19" s="4">
-        <f>J18</f>
-        <v>1.0406302708064596</v>
+      <c r="F54">
+        <f>AVERAGE(F2:F53)</f>
+        <v>0.24991414835164838</v>
+      </c>
+      <c r="I54">
+        <f>AVERAGE(I18:I53)</f>
+        <v>-2.3187907935409799E-2</v>
+      </c>
+      <c r="J54">
+        <f>AVERAGE(J18:J53)</f>
+        <v>1.0231879079354096</v>
+      </c>
+      <c r="L54">
+        <f>F54</f>
+        <v>0.24991414835164838</v>
+      </c>
+      <c r="P54">
+        <f>AVERAGE(P2:P53)</f>
+        <v>-9.7309353796063997E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <f>L56</f>
+        <v>0.99725563900000003</v>
+      </c>
+      <c r="P55">
+        <f>P54+J54</f>
+        <v>1.0134569725558031</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>0.99725563900000003</v>
       </c>
     </row>
   </sheetData>
